--- a/modele/pont_thermique.xlsx
+++ b/modele/pont_thermique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31FCF89-07AB-49B3-B424-E2EC356DDB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B4B50-8F6D-4287-A5B7-E7C7389EAC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="837" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="enums" sheetId="13" r:id="rId2"/>
     <sheet name="correspondance" sheetId="14" r:id="rId3"/>
     <sheet name="kpt" sheetId="48" r:id="rId4"/>
+    <sheet name="kpt_test" sheetId="50" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="105">
   <si>
     <t>Non isolé</t>
   </si>
@@ -303,9 +304,6 @@
     <t>ITR_ITE_ITI</t>
   </si>
   <si>
-    <t>ITI_ITE_ITR</t>
-  </si>
-  <si>
     <t>TypeLiaison</t>
   </si>
   <si>
@@ -325,9 +323,6 @@
   </si>
   <si>
     <t>ITR+ITE</t>
-  </si>
-  <si>
-    <t>ITR_ITI_ITE</t>
   </si>
   <si>
     <t>ITR+ITI+ITE</t>
@@ -377,6 +372,12 @@
   </si>
   <si>
     <t>logement/enveloppe/pont_thermique_collection/pont_thermique/donnee_entree/k_saisi</t>
+  </si>
+  <si>
+    <t>kpt_saisi</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -471,7 +472,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="46">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -622,50 +671,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EAAC9AE-E8DB-4DA4-B317-EB41DCB9D0D9}" name="modele" displayName="modele" ref="A1:J13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EAAC9AE-E8DB-4DA4-B317-EB41DCB9D0D9}" name="modele" displayName="modele" ref="A1:J13" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:J13" xr:uid="{3EAAC9AE-E8DB-4DA4-B317-EB41DCB9D0D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I10">
     <sortCondition ref="B1:B10"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{63030637-8C99-4AD0-A34B-0BE54CE8E0C4}" name="domaine" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{464E3E6A-A864-42DD-A003-C8810147C1F7}" name="scope" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{6C85BBA5-DE06-4828-9BC5-1536B73DC8D2}" name="variable" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{B7C5EC85-8AEC-4A8F-B7A7-3BA51D8FFA00}" name="description" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{FBDEAD4A-20C5-4F34-B9C9-4B467867C620}" name="type" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{FD29CEB3-F515-4983-81FA-7C7614DBFBBB}" name="format" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{5973A496-4DFD-44B5-9046-9C601535E1F6}" name="unite" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{E0A1EB16-FAB0-4C2A-A926-D6813151F093}" name="statut" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{586C492E-7778-465F-800A-756773223FA5}" name="nullable" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{AB7E950B-D6D1-473A-888B-49877BC26D84}" name="opendata_xpath" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{63030637-8C99-4AD0-A34B-0BE54CE8E0C4}" name="domaine" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{464E3E6A-A864-42DD-A003-C8810147C1F7}" name="scope" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{6C85BBA5-DE06-4828-9BC5-1536B73DC8D2}" name="variable" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{B7C5EC85-8AEC-4A8F-B7A7-3BA51D8FFA00}" name="description" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{FBDEAD4A-20C5-4F34-B9C9-4B467867C620}" name="type" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{FD29CEB3-F515-4983-81FA-7C7614DBFBBB}" name="format" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{5973A496-4DFD-44B5-9046-9C601535E1F6}" name="unite" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{E0A1EB16-FAB0-4C2A-A926-D6813151F093}" name="statut" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{586C492E-7778-465F-800A-756773223FA5}" name="nullable" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{AB7E950B-D6D1-473A-888B-49877BC26D84}" name="opendata_xpath" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{8A9EE4CA-8E8F-4D0E-BF0D-31AF561EE9BD}" name="enums" displayName="enums" ref="A1:D17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{8A9EE4CA-8E8F-4D0E-BF0D-31AF561EE9BD}" name="enums" displayName="enums" ref="A1:D17" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:D17" xr:uid="{8A9EE4CA-8E8F-4D0E-BF0D-31AF561EE9BD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{467C6965-0B48-44CA-9A60-110C0ABA7649}" name="enum" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{941B5246-2B82-4E0E-8AE2-0BA8DB8086E6}" name="const" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{987C4A01-A795-4783-8DC7-0F7E2AF6A5DE}" name="description" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4FAFEBA2-37C5-4909-A706-D43C9125FD12}" name="deprecated" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{467C6965-0B48-44CA-9A60-110C0ABA7649}" name="enum" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{941B5246-2B82-4E0E-8AE2-0BA8DB8086E6}" name="const" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{987C4A01-A795-4783-8DC7-0F7E2AF6A5DE}" name="description" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{4FAFEBA2-37C5-4909-A706-D43C9125FD12}" name="deprecated" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5E7E7D0E-FA3E-4BAE-8198-7C9BFBF8AE8A}" name="correspondance" displayName="correspondance" ref="A1:F6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5E7E7D0E-FA3E-4BAE-8198-7C9BFBF8AE8A}" name="correspondance" displayName="correspondance" ref="A1:F6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:F6" xr:uid="{5E7E7D0E-FA3E-4BAE-8198-7C9BFBF8AE8A}"/>
   <tableColumns count="6">
-    <tableColumn id="8" xr3:uid="{E454D1AC-BD53-4C7F-ADDC-08FFFF454BB3}" name="table" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{F2035FD6-AAD6-414E-A027-16F1D84D1231}" name="table_id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E37B39F8-8A12-4F4A-AF5A-448C094990DB}" name="table_description" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{6033A568-B2C1-4810-858E-FB0CB4F5F11C}" name="enum" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3EC7DC67-8646-4592-8E9B-161BBB74E3F6}" name="const" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A9A83E2E-B164-4B58-8C51-8B4149217175}" name="description" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{E454D1AC-BD53-4C7F-ADDC-08FFFF454BB3}" name="table" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{F2035FD6-AAD6-414E-A027-16F1D84D1231}" name="table_id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{E37B39F8-8A12-4F4A-AF5A-448C094990DB}" name="table_description" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{6033A568-B2C1-4810-858E-FB0CB4F5F11C}" name="enum" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{3EC7DC67-8646-4592-8E9B-161BBB74E3F6}" name="const" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{A9A83E2E-B164-4B58-8C51-8B4149217175}" name="description" dataDxfId="20">
       <calculatedColumnFormula array="1">IF(ISBLANK(correspondance[[#This Row],[const]]),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[const]]),0),1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -674,20 +723,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{4726B6AB-EDB2-4D32-859B-8D267AA723C6}" name="kpt" displayName="kpt" ref="A1:H224" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{4726B6AB-EDB2-4D32-859B-8D267AA723C6}" name="kpt" displayName="kpt" ref="A1:H224" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:H224" xr:uid="{4726B6AB-EDB2-4D32-859B-8D267AA723C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H224">
     <sortCondition ref="H1:H224"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{465DA651-34C6-4C30-A1A3-730A4C6FDF82}" name="type_liaison" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{22FB8423-669E-4DF8-A6BB-03166E8EE73A}" name="type_isolation_mur" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{401AF4CD-F2B2-425C-A1EA-A2D040B01E93}" name="type_isolation_plancher" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4831BE91-327C-48D5-8476-D71B31FC8FB5}" name="type_pose_ouverture" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{051776EF-D57A-4551-9187-A1CCDAA340E0}" name="presence_retour_isolation" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B4415DB5-6E5F-4E3C-9CD2-3B4C36E75A16}" name="largeur_dormant" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B13CD38B-9FBD-4A6D-ABE1-B40268D6D415}" name="kpt" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{76C922AC-9E57-42A8-97E2-49B79EF3990A}" name="tv_pont_thermique_id" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{465DA651-34C6-4C30-A1A3-730A4C6FDF82}" name="type_liaison" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{22FB8423-669E-4DF8-A6BB-03166E8EE73A}" name="type_isolation_mur" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{401AF4CD-F2B2-425C-A1EA-A2D040B01E93}" name="type_isolation_plancher" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{4831BE91-327C-48D5-8476-D71B31FC8FB5}" name="type_pose_ouverture" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{051776EF-D57A-4551-9187-A1CCDAA340E0}" name="presence_retour_isolation" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B4415DB5-6E5F-4E3C-9CD2-3B4C36E75A16}" name="largeur_dormant" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{B13CD38B-9FBD-4A6D-ABE1-B40268D6D415}" name="kpt" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{76C922AC-9E57-42A8-97E2-49B79EF3990A}" name="tv_pont_thermique_id" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4123097F-0D89-4805-AA1E-06D8175C16D4}" name="kpt_test" displayName="kpt_test" ref="A1:H224" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H224" xr:uid="{4123097F-0D89-4805-AA1E-06D8175C16D4}"/>
+  <tableColumns count="8">
+    <tableColumn id="10" xr3:uid="{1F4EEB57-25EE-4386-867F-5657FB69ABF6}" name="type_liaison" dataDxfId="7">
+      <calculatedColumnFormula>kpt[[#This Row],[type_liaison]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{EECA29CC-7F89-4AAA-AC8D-F547E5A26CD1}" name="type_isolation_mur" dataDxfId="6">
+      <calculatedColumnFormula>kpt[[#This Row],[type_isolation_mur]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{57FACE32-A263-4D05-A01F-865EDA058DEE}" name="type_isolation_plancher" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{658EE879-BFFB-47E3-984E-0C45982CD79F}" name="type_pose_ouverture" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{69454672-D4EA-447F-ACD8-6466FAC0AE06}" name="presence_retour_isolation" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7B81A691-A658-49C7-AE02-57FBE5FE9FE4}" name="largeur_dormant" dataDxfId="2">
+      <calculatedColumnFormula>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{99D0878B-1AC5-4699-B90C-C9E9117489CB}" name="kpt_saisi" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{1442EA40-D683-48B4-8F2A-0A8E5B8B8981}" name="kpt" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1009,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1037,7 +1111,7 @@
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1065,7 +1139,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1095,7 +1169,7 @@
         <v>56</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1125,7 +1199,7 @@
         <v>56</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1153,7 +1227,7 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1183,7 +1257,7 @@
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1194,13 +1268,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1209,7 +1283,7 @@
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1237,7 +1311,7 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1267,7 +1341,7 @@
         <v>56</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1360,7 +1434,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1461,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -1399,7 +1473,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -1411,7 +1485,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1423,7 +1497,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -1435,7 +1509,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -1447,7 +1521,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1459,7 +1533,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -1471,7 +1545,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -1483,7 +1557,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1495,7 +1569,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1507,73 +1581,73 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1608,13 +1682,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -1637,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -1658,7 +1732,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -1679,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
@@ -1700,7 +1774,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -1721,7 +1795,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1744,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68079969-CA81-4E26-A014-47CA0EEA757C}">
   <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1">
         <v>0.47</v>
@@ -2049,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1">
         <v>0.08</v>
@@ -2185,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1">
         <v>0.48</v>
@@ -2321,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -2457,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="1">
         <v>0.08</v>
@@ -2678,7 +2752,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" s="1">
         <v>0.08</v>
@@ -2729,7 +2803,7 @@
         <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="1">
         <v>0.08</v>
@@ -2865,7 +2939,7 @@
         <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" s="1">
         <v>0.1</v>
@@ -3113,7 +3187,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G81" s="1">
         <v>0.4</v>
@@ -3249,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G89" s="1">
         <v>7.0000000000000007E-2</v>
@@ -3385,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G97" s="1">
         <v>0.57999999999999996</v>
@@ -3521,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G105" s="1">
         <v>0.3</v>
@@ -3657,7 +3731,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G113" s="1">
         <v>7.0000000000000007E-2</v>
@@ -3878,7 +3952,7 @@
         <v>77</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G126" s="1">
         <v>7.0000000000000007E-2</v>
@@ -3929,7 +4003,7 @@
         <v>79</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G129" s="1">
         <v>7.0000000000000007E-2</v>
@@ -4065,7 +4139,7 @@
         <v>78</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G137" s="1">
         <v>0.3</v>
@@ -5983,4 +6057,7143 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECB7E3E-A49E-45E3-B072-0AF108521416}">
+  <dimension ref="A1:H224"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_BAS_MUR</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H87" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H88" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H89" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H107" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H111" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H113" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H116" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H117" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E118" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D119" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E119" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D120" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E120" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E121" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E122" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F122" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E123" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F123" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E124" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H124" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E125" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F125" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H125" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D126" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E126" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F126" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H126" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E127" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H127" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E128" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F128" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H128" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E129" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H129" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="D130" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E130" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F130" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI</v>
+      </c>
+      <c r="D131" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E131" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F131" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E132" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F132" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E133" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F133" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E134" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C135" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="D135" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E135" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C136" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="D136" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E136" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F136" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>PLANCHER_HAUT_MUR</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C137" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="D137" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E137" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F137" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C138" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D138" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E138" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F138" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C139" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D139" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E139" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C140" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D140" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E140" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C141" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D141" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E141" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F141" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C142" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D142" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E142" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C143" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D143" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E143" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F143" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C144" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D144" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E144" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F144" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>REFEND_MUR</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C145" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>null</v>
+      </c>
+      <c r="E145" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F145" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C146" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E146" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F146" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C147" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E147" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F147" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C148" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E148" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F148" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C149" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D149" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E149" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F149" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C150" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D150" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E150" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F150" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>NON_ISOLE</v>
+      </c>
+      <c r="C151" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D151" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E151" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F151" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C152" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D152" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E152" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C153" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D153" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E153" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B154" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C154" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D154" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E154" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B155" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C155" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D155" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E155" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B156" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C156" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D156" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E156" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B157" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C157" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D157" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E157" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B158" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C158" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D158" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E158" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B159" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C159" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D159" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E159" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B160" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C160" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D160" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E160" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B161" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C161" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D161" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E161" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B162" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C162" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D162" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E162" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B163" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI</v>
+      </c>
+      <c r="C163" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D163" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E163" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B164" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C164" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D164" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E164" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F164" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B165" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C165" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D165" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E165" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F165" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B166" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C166" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D166" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E166" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F166" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B167" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C167" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D167" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E167" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F167" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C168" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D168" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E168" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F168" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B169" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C169" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D169" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E169" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B170" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C170" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D170" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E170" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B171" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C171" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D171" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E171" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B172" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C172" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D172" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E172" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B173" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C173" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D173" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E173" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B174" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C174" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D174" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E174" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B175" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE</v>
+      </c>
+      <c r="C175" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D175" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
+        <v>NU_INTERIEUR</v>
+      </c>
+      <c r="E175" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B176" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C176" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="E176" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F176" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B177" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C177" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B178" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C178" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C179" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B180" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C180" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B181" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C181" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F181" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B182" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C182" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B183" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C183" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B184" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C184" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B185" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C185" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B186" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C186" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B187" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C187" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B188" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C188" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B189" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C189" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B190" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C190" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B191" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C191" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F191" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B192" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C192" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B193" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C193" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F193" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B194" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C194" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F194" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B195" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C195" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B196" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C196" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B197" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C197" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B198" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C198" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B199" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C199" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B200" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C200" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B201" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C201" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B202" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C202" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B203" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C203" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B204" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C204" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F204" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B205" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C205" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F205" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B206" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C206" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F206" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B207" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C207" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B208" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C208" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B209" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C209" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F209" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B210" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C210" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B211" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C211" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F211" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B212" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C212" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B213" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C213" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B214" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C214" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B215" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C215" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B216" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C216" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F216" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B217" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C217" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B218" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C218" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B219" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C219" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B220" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C220" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B221" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C221" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B222" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C222" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>5</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B223" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C223" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="str">
+        <f>kpt[[#This Row],[type_liaison]]</f>
+        <v>MENUISERIE_MUR</v>
+      </c>
+      <c r="B224" s="1" t="str">
+        <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C224" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
+        <v>null</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>10</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/modele/pont_thermique.xlsx
+++ b/modele/pont_thermique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B4B50-8F6D-4287-A5B7-E7C7389EAC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D65E3C-5031-4D0D-A835-76C595A5CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="837" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{4726B6AB-EDB2-4D32-859B-8D267AA723C6}" name="kpt" displayName="kpt" ref="A1:H224" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:H224" xr:uid="{4726B6AB-EDB2-4D32-859B-8D267AA723C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H224">
-    <sortCondition ref="H1:H224"/>
+    <sortCondition descending="1" ref="A1:A224"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="10" xr3:uid="{465DA651-34C6-4C30-A1A3-730A4C6FDF82}" name="type_liaison" dataDxfId="17"/>
@@ -760,8 +760,8 @@
     <tableColumn id="7" xr3:uid="{7B81A691-A658-49C7-AE02-57FBE5FE9FE4}" name="largeur_dormant" dataDxfId="2">
       <calculatedColumnFormula>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{99D0878B-1AC5-4699-B90C-C9E9117489CB}" name="kpt_saisi" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{1442EA40-D683-48B4-8F2A-0A8E5B8B8981}" name="kpt" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{99D0878B-1AC5-4699-B90C-C9E9117489CB}" name="kpt_saisi" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{1442EA40-D683-48B4-8F2A-0A8E5B8B8981}" name="kpt" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68079969-CA81-4E26-A014-47CA0EEA757C}">
   <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,1202 +1862,1178 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="1">
-        <v>0.39</v>
+        <v>0.73</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="1">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="H9" s="1">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="1">
-        <v>0.31</v>
+        <v>0.86</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G11" s="1">
-        <v>0.08</v>
+        <v>0.92</v>
       </c>
       <c r="H11" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>0.71</v>
+        <v>0.13</v>
       </c>
       <c r="H12" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="H13" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>0.71</v>
+        <v>0.13</v>
       </c>
       <c r="H14" s="1">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="H16" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="1">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="H17" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="1">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="1">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0.48</v>
+        <v>0.83</v>
       </c>
       <c r="H19" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="H20" s="1">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="H21" s="1">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="1">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="H22" s="1">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="H23" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G24" s="1">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="H24" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G25" s="1">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="H25" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="1">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="H26" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H27" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="H28" s="1">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="H29" s="1">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G30" s="1">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="H30" s="1">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H31" s="1">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G32" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H33" s="1">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H34" s="1">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="H35" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.45</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H36" s="1">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="1">
-        <v>0.45</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H37" s="1">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="1">
-        <v>0.45</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H38" s="1">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="1">
-        <v>0.08</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H39" s="1">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G40" s="1">
-        <v>0.08</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H40" s="1">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="1">
-        <v>0.08</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H41" s="1">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="1">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="H42" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>79</v>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="H43" s="1">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="H44" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>79</v>
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="H45" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="G46" s="1">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H46" s="1">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="H47" s="1">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G48" s="1">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="H48" s="1">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G49" s="1">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="H49" s="1">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>79</v>
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="H50" s="1">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>79</v>
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H51" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
-        <v>0.08</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H52" s="1">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1">
-        <v>0.08</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H53" s="1">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" s="1">
-        <v>0.08</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H54" s="1">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>79</v>
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H55" s="1">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>79</v>
+      <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G56" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H56" s="1">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>79</v>
+      <c r="A57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G57" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H57" s="1">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="1">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="H58" s="1">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>78</v>
+      <c r="A59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="H59" s="1">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H60" s="1">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>78</v>
+      <c r="A61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H61" s="1">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H62" s="1">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G63" s="1">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="H63" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G64" s="1">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="H64" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H65" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H66" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H65" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="H66" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G67" s="1">
-        <v>0.92</v>
+        <v>0.48</v>
       </c>
       <c r="H67" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="1">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H68" s="1">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G69" s="1">
-        <v>0.24</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H69" s="1">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="H70" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="G71" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="H71" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G72" s="1">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H72" s="1">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G73" s="1">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H73" s="1">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3065,16 +3041,16 @@
         <v>21</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G74" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H74" s="1">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3082,16 +3058,16 @@
         <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G75" s="1">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
       <c r="H75" s="1">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3099,16 +3075,16 @@
         <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="1">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="H76" s="1">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3116,16 +3092,16 @@
         <v>21</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="1">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="H77" s="1">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3133,16 +3109,16 @@
         <v>21</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G78" s="1">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="H78" s="1">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3150,16 +3126,16 @@
         <v>21</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H79" s="1">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3167,16 +3143,16 @@
         <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G80" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H80" s="1">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3184,1080 +3160,1104 @@
         <v>21</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G81" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H81" s="1">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G82" s="1">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="H82" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G83" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.47</v>
       </c>
       <c r="H83" s="1">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G85" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H85" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G86" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H86" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G87" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.47</v>
       </c>
       <c r="H87" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G88" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.47</v>
       </c>
       <c r="H88" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G89" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.47</v>
       </c>
       <c r="H89" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G90" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.31</v>
       </c>
       <c r="H90" s="1">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G91" s="1">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="H91" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G92" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="H92" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G93" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="H93" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G94" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="H94" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G95" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="H95" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G96" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="H96" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G97" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="H97" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G98" s="1">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="H98" s="1">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G99" s="1">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="H99" s="1">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G100" s="1">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="H100" s="1">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G101" s="1">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="H101" s="1">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G102" s="1">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="H102" s="1">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="1">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="H103" s="1">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G104" s="1">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="H104" s="1">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G105" s="1">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="H105" s="1">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="1">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="H106" s="1">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G107" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H107" s="1">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="H108" s="1">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G109" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="H109" s="1">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G110" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="H110" s="1">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G111" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H111" s="1">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G112" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H112" s="1">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G113" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H113" s="1">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G114" s="1">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="H114" s="1">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>79</v>
+      <c r="A115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G115" s="1">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="H115" s="1">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="H116" s="1">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>79</v>
+      <c r="A117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G117" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="H117" s="1">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="G118" s="1">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="H118" s="1">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G119" s="1">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="H119" s="1">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H120" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H121" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="H122" s="1">
         <v>21</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G120" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="H120" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="H121" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="H122" s="1">
-        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="G123" s="1">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="H123" s="1">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G124" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H124" s="1">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>77</v>
+      <c r="A125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G125" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H125" s="1">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G126" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="H126" s="1">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>79</v>
+      <c r="A127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G127" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="H127" s="1">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>79</v>
+      <c r="A128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G128" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="H128" s="1">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H129" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G129" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H129" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H130" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H130" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G131" s="1">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="H131" s="1">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G132" s="1">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="H132" s="1">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="G133" s="1">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="H133" s="1">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G134" s="1">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="H134" s="1">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>78</v>
+      <c r="A135" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G135" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="H135" s="1">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>78</v>
+      <c r="A136" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G136" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="H136" s="1">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>78</v>
+      <c r="A137" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G137" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="H137" s="1">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="1">
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
       <c r="H138" s="1">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G139" s="1">
-        <v>0.82</v>
+        <v>0.1</v>
       </c>
       <c r="H139" s="1">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G140" s="1">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
       <c r="H140" s="1">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G141" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="H141" s="1">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G142" s="1">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
       <c r="H142" s="1">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G143" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H143" s="1">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C144" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G144" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H144" s="1">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="A145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G145" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H145" s="1">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4271,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="F146" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G146" s="1">
         <v>0.43</v>
@@ -4288,16 +4288,16 @@
         <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F147" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G147" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="H147" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4308,16 +4308,16 @@
         <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F148" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G148" s="1">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="H148" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4325,19 +4325,22 @@
         <v>23</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
       </c>
       <c r="F149" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G149" s="1">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="H149" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4345,19 +4348,22 @@
         <v>23</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
       </c>
       <c r="F150" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G150" s="1">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
       <c r="H150" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4365,19 +4371,22 @@
         <v>23</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
       <c r="F151" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G151" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H151" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -4391,16 +4400,16 @@
         <v>10</v>
       </c>
       <c r="E152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G152" s="1">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="H152" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4411,19 +4420,19 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G153" s="1">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="H153" s="1">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -4434,19 +4443,19 @@
         <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G154" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H154" s="1">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -4454,22 +4463,22 @@
         <v>23</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
       </c>
       <c r="F155" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G155" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H155" s="1">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4477,22 +4486,22 @@
         <v>23</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
       </c>
       <c r="F156" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G156" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H156" s="1">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4500,7 +4509,7 @@
         <v>23</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
@@ -4509,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="F157" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G157" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H157" s="1">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4523,7 +4532,7 @@
         <v>23</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>10</v>
@@ -4532,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="F158" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G158" s="1">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4546,22 +4555,22 @@
         <v>23</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
       </c>
       <c r="F159" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G159" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="H159" s="1">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4569,22 +4578,22 @@
         <v>23</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1">
         <v>0</v>
       </c>
       <c r="F160" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G160" s="1">
-        <v>0.31</v>
+        <v>0.9</v>
       </c>
       <c r="H160" s="1">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -4592,22 +4601,22 @@
         <v>23</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="1">
         <v>1</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="1">
+      <c r="F161" s="1">
+        <v>50</v>
+      </c>
+      <c r="G161" s="1">
         <v>0</v>
       </c>
-      <c r="F161" s="1">
-        <v>10</v>
-      </c>
-      <c r="G161" s="1">
-        <v>0.19</v>
-      </c>
       <c r="H161" s="1">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4615,22 +4624,22 @@
         <v>23</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="1">
         <v>1</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" s="1">
-        <v>0</v>
-      </c>
       <c r="F162" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G162" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H162" s="1">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -4638,22 +4647,22 @@
         <v>23</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G163" s="1">
         <v>0</v>
       </c>
       <c r="H163" s="1">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -4661,22 +4670,22 @@
         <v>23</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G164" s="1">
         <v>0</v>
       </c>
       <c r="H164" s="1">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -4684,22 +4693,22 @@
         <v>23</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G165" s="1">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H165" s="1">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -4707,22 +4716,22 @@
         <v>23</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G166" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H166" s="1">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -4730,22 +4739,22 @@
         <v>23</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
       </c>
       <c r="F167" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G167" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H167" s="1">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -4753,22 +4762,22 @@
         <v>23</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
       </c>
       <c r="F168" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G168" s="1">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="H168" s="1">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -4776,7 +4785,7 @@
         <v>23</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
@@ -4785,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="F169" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G169" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H169" s="1">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -4799,7 +4808,7 @@
         <v>23</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>10</v>
@@ -4808,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="F170" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G170" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H170" s="1">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4822,22 +4831,22 @@
         <v>23</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E171" s="1">
         <v>0</v>
       </c>
       <c r="F171" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G171" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H171" s="1">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -4845,22 +4854,22 @@
         <v>23</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E172" s="1">
         <v>0</v>
       </c>
       <c r="F172" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G172" s="1">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H172" s="1">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4868,45 +4877,45 @@
         <v>23</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>50</v>
+      </c>
+      <c r="G173" s="1">
         <v>0</v>
       </c>
-      <c r="F173" s="1">
+      <c r="H173" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G173" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H173" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1">
+        <v>50</v>
+      </c>
+      <c r="G174" s="1">
         <v>0</v>
       </c>
-      <c r="F174" s="1">
-        <v>5</v>
-      </c>
-      <c r="G174" s="1">
-        <v>0.9</v>
-      </c>
       <c r="H174" s="1">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -4914,36 +4923,45 @@
         <v>23</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G175" s="1">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="H175" s="1">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>3</v>
+      <c r="B176" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1">
+        <v>50</v>
       </c>
       <c r="G176" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H176" s="1">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -4951,45 +4969,45 @@
         <v>23</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="F177" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G177" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H177" s="1">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>9</v>
+      <c r="B178" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
       </c>
       <c r="F178" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G178" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H178" s="1">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -4997,45 +5015,45 @@
         <v>23</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G179" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H179" s="1">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>9</v>
+      <c r="B180" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G180" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H180" s="1">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5043,45 +5061,45 @@
         <v>23</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G181" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H181" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="1">
         <v>0</v>
       </c>
-      <c r="H181" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" s="1">
-        <v>1</v>
-      </c>
       <c r="F182" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G182" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H182" s="1">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -5089,45 +5107,45 @@
         <v>23</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" s="1">
         <v>0</v>
       </c>
       <c r="F183" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G183" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H183" s="1">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>9</v>
+      <c r="B184" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" s="1">
         <v>0</v>
       </c>
       <c r="F184" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G184" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H184" s="1">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5135,22 +5153,19 @@
         <v>23</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F185" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G185" s="1">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H185" s="1">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -5158,22 +5173,19 @@
         <v>23</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E186" s="1">
-        <v>0</v>
-      </c>
       <c r="F186" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G186" s="1">
         <v>0.19</v>
       </c>
       <c r="H186" s="1">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -5181,22 +5193,19 @@
         <v>23</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E187" s="1">
-        <v>0</v>
-      </c>
       <c r="F187" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G187" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H187" s="1">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -5204,22 +5213,22 @@
         <v>23</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G188" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H188" s="1">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -5227,22 +5236,22 @@
         <v>23</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
       </c>
       <c r="F189" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G189" s="1">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="H189" s="1">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -5250,22 +5259,22 @@
         <v>23</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
       </c>
       <c r="F190" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G190" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H190" s="1">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -5273,22 +5282,22 @@
         <v>23</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G191" s="1">
-        <v>0.16</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H191" s="1">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5296,22 +5305,22 @@
         <v>23</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G192" s="1">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="H192" s="1">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -5319,22 +5328,22 @@
         <v>23</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G193" s="1">
         <v>0</v>
       </c>
       <c r="H193" s="1">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -5342,22 +5351,22 @@
         <v>23</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
       </c>
       <c r="F194" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G194" s="1">
         <v>0</v>
       </c>
       <c r="H194" s="1">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -5365,22 +5374,22 @@
         <v>23</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E195" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G195" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H195" s="1">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -5388,22 +5397,22 @@
         <v>23</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G196" s="1">
         <v>0.2</v>
       </c>
       <c r="H196" s="1">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -5411,22 +5420,22 @@
         <v>23</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
       </c>
       <c r="F197" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G197" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H197" s="1">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -5434,7 +5443,7 @@
         <v>23</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>12</v>
@@ -5443,13 +5452,13 @@
         <v>0</v>
       </c>
       <c r="F198" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G198" s="1">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="H198" s="1">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -5457,7 +5466,7 @@
         <v>23</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>11</v>
@@ -5466,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="F199" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G199" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H199" s="1">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -5480,22 +5489,22 @@
         <v>23</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E200" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G200" s="1">
         <v>0</v>
       </c>
       <c r="H200" s="1">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -5503,45 +5512,45 @@
         <v>23</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="F201" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G201" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H201" s="1">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="7" t="s">
+      <c r="A202" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B202" s="7" t="s">
-        <v>79</v>
+      <c r="B202" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
       </c>
       <c r="F202" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G202" s="1">
         <v>0</v>
       </c>
       <c r="H202" s="1">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -5549,45 +5558,45 @@
         <v>23</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G203" s="1">
         <v>0</v>
       </c>
       <c r="H203" s="1">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>79</v>
+      <c r="B204" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E204" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G204" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H204" s="1">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -5595,45 +5604,45 @@
         <v>23</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G205" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H205" s="1">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>79</v>
+      <c r="B206" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
       </c>
       <c r="F206" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G206" s="1">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H206" s="1">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -5641,7 +5650,7 @@
         <v>23</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>12</v>
@@ -5650,36 +5659,36 @@
         <v>1</v>
       </c>
       <c r="F207" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G207" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H207" s="1">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B208" s="7" t="s">
-        <v>79</v>
+      <c r="B208" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
       </c>
       <c r="F208" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G208" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H208" s="1">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -5687,45 +5696,45 @@
         <v>23</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G209" s="1">
         <v>0.2</v>
       </c>
       <c r="H209" s="1">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>79</v>
+      <c r="B210" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G210" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H210" s="1">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -5733,214 +5742,214 @@
         <v>23</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="1">
+        <v>100</v>
+      </c>
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
+      <c r="H211" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G211" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H211" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
       </c>
       <c r="F212" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G212" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H212" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>78</v>
+      <c r="B213" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G213" s="1">
         <v>0</v>
       </c>
       <c r="H213" s="1">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1">
+        <v>100</v>
+      </c>
+      <c r="G214" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H214" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" s="1">
-        <v>0</v>
-      </c>
-      <c r="F214" s="1">
-        <v>5</v>
-      </c>
-      <c r="G214" s="1">
-        <v>0</v>
-      </c>
-      <c r="H214" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="D215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1">
+        <v>100</v>
+      </c>
+      <c r="G215" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H215" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E215" s="1">
-        <v>0</v>
-      </c>
-      <c r="F215" s="1">
-        <v>10</v>
-      </c>
-      <c r="G215" s="1">
-        <v>0</v>
-      </c>
-      <c r="H215" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="7" t="s">
+      <c r="D216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1">
+        <v>100</v>
+      </c>
+      <c r="G216" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H216" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B217" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" s="1">
-        <v>0</v>
-      </c>
-      <c r="F216" s="1">
-        <v>10</v>
-      </c>
-      <c r="G216" s="1">
-        <v>0</v>
-      </c>
-      <c r="H216" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D217" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G217" s="1">
         <v>0.2</v>
       </c>
       <c r="H217" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B218" s="7" t="s">
-        <v>79</v>
+      <c r="B218" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
       </c>
       <c r="F218" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G218" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H218" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>78</v>
+      <c r="B219" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
       </c>
       <c r="F219" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G219" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H219" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B220" s="7" t="s">
-        <v>79</v>
+      <c r="B220" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>12</v>
@@ -5949,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="F220" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G220" s="1">
         <v>0.2</v>
@@ -5959,34 +5968,34 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>78</v>
+      <c r="B221" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E221" s="1">
         <v>0</v>
       </c>
       <c r="F221" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G221" s="1">
         <v>0.2</v>
       </c>
       <c r="H221" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="7" t="s">
-        <v>79</v>
+      <c r="B222" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>11</v>
@@ -5995,21 +6004,21 @@
         <v>0</v>
       </c>
       <c r="F222" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G222" s="1">
         <v>0.2</v>
       </c>
       <c r="H222" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>78</v>
+      <c r="B223" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>11</v>
@@ -6018,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="F223" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G223" s="1">
         <v>0.2</v>
@@ -6028,26 +6037,17 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="7" t="s">
+      <c r="A224" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" s="1">
-        <v>0</v>
-      </c>
-      <c r="F224" s="1">
-        <v>10</v>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G224" s="1">
         <v>0.2</v>
       </c>
       <c r="H224" s="1">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6109,7 +6109,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="C2" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>NON_ISOLE</v>
+        <v>null</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6141,15 +6141,15 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITI</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
+        <v>null</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6173,15 +6173,15 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
+        <v>null</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6205,15 +6205,15 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITR</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>null</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6237,15 +6237,15 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
+        <v>null</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6269,15 +6269,15 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITE</v>
+        <v>null</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6301,15 +6301,15 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B8" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITR</v>
+        <v>null</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6333,15 +6333,15 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>REFEND_MUR</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR_ITE_ITI</v>
+        <v>null</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6365,15 +6365,15 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>NON_ISOLE</v>
+        <v>null</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6397,7 +6397,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
+        <v>null</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6429,15 +6429,15 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
+        <v>null</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6461,15 +6461,15 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITR</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>null</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6493,15 +6493,15 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
+        <v>null</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6525,15 +6525,15 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITE</v>
+        <v>null</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6557,15 +6557,15 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITR</v>
+        <v>null</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6589,15 +6589,15 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR_ITE_ITI</v>
+        <v>null</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -6621,11 +6621,11 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6653,11 +6653,11 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6685,11 +6685,11 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B20" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6717,11 +6717,11 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6749,11 +6749,11 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6781,11 +6781,11 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6813,11 +6813,11 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6845,11 +6845,11 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6877,11 +6877,11 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6909,11 +6909,11 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B27" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6941,11 +6941,11 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B28" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -6973,11 +6973,11 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C29" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7005,11 +7005,11 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B30" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7037,11 +7037,11 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7069,11 +7069,11 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B32" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7101,11 +7101,11 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B33" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7133,11 +7133,11 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B34" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7165,11 +7165,11 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7197,11 +7197,11 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B36" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C36" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7229,11 +7229,11 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B37" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C37" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7261,11 +7261,11 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B38" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C38" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7293,11 +7293,11 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B39" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C39" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7325,11 +7325,11 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C40" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7357,11 +7357,11 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B41" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="C41" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7389,11 +7389,11 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B42" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITR</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7421,15 +7421,15 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITR</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>NON_ISOLE</v>
+        <v>ITI</v>
       </c>
       <c r="D43" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7453,15 +7453,15 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B44" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITR</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="D44" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7485,15 +7485,15 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B45" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITR</v>
       </c>
       <c r="C45" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
+        <v>ITR</v>
       </c>
       <c r="D45" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7517,15 +7517,15 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B46" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITR</v>
       </c>
       <c r="C46" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="D46" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7549,15 +7549,15 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B47" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITR</v>
       </c>
       <c r="C47" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="D47" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7581,15 +7581,15 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B48" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITI_ITR</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
       </c>
       <c r="D48" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7613,15 +7613,15 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B49" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITR_ITE_ITI</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
       </c>
       <c r="D49" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7645,15 +7645,15 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B50" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C50" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="D50" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7677,15 +7677,15 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B51" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C51" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
+        <v>ITI</v>
       </c>
       <c r="D51" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7709,15 +7709,15 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B52" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C52" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITE</v>
+        <v>ITE</v>
       </c>
       <c r="D52" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7741,15 +7741,15 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B53" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C53" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITR</v>
+        <v>ITR</v>
       </c>
       <c r="D53" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7773,15 +7773,15 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B54" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C54" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="D54" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7805,11 +7805,11 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C55" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7837,11 +7837,11 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B56" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C56" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7869,11 +7869,11 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B57" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C57" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7901,11 +7901,11 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B58" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C58" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -7933,15 +7933,15 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B59" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C59" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="D59" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7965,15 +7965,15 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B60" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C60" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="D60" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -7997,15 +7997,15 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B61" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C61" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>ITI</v>
       </c>
       <c r="D61" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8029,15 +8029,15 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B62" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C62" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
+        <v>ITE</v>
       </c>
       <c r="D62" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8061,15 +8061,15 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B63" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C63" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="D63" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8093,15 +8093,15 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B64" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITR</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITE_ITR</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITR</v>
       </c>
       <c r="D64" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8125,15 +8125,15 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_BAS_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B65" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C65" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE</v>
       </c>
       <c r="D65" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8157,15 +8157,15 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B66" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C66" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITR</v>
       </c>
       <c r="D66" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8189,15 +8189,15 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B67" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C67" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="D67" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8221,15 +8221,15 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B68" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C68" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="D68" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8253,15 +8253,15 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B69" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C69" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="D69" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8285,15 +8285,15 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B70" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C70" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="D70" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8317,15 +8317,15 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B71" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="D71" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8349,15 +8349,15 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B72" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C72" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="D72" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8381,7 +8381,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_INTERMEDIAIRE_MUR</v>
+        <v>PLANCHER_HAUT_MUR</v>
       </c>
       <c r="B73" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="C73" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="D73" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="B74" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B75" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C75" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B76" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C76" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="B77" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="B78" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B79" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="B80" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B81" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8669,11 +8669,11 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B82" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C82" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8701,11 +8701,11 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B83" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C83" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8733,11 +8733,11 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B84" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C84" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8765,11 +8765,11 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B85" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C85" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8797,11 +8797,11 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B86" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C86" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8829,11 +8829,11 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B87" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C87" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8861,11 +8861,11 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B88" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C88" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8893,11 +8893,11 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B89" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C89" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8925,11 +8925,11 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B90" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C90" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8957,11 +8957,11 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B91" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C91" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -8989,11 +8989,11 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B92" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C92" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9021,11 +9021,11 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B93" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C93" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9053,11 +9053,11 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B94" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9085,11 +9085,11 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B95" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9117,11 +9117,11 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B96" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9149,11 +9149,11 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B97" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C97" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9181,11 +9181,11 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B98" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C98" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9213,11 +9213,11 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B99" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C99" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9245,11 +9245,11 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B100" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9277,11 +9277,11 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B101" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9309,11 +9309,11 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B102" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C102" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9341,11 +9341,11 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B103" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C103" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9373,11 +9373,11 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B104" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9405,11 +9405,11 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B105" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C105" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9437,11 +9437,11 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B106" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C106" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9469,11 +9469,11 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B107" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9501,11 +9501,11 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B108" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C108" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9533,11 +9533,11 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B109" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C109" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9565,11 +9565,11 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B110" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C110" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9597,11 +9597,11 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B111" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C111" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9629,11 +9629,11 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B112" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C112" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9661,11 +9661,11 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B113" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="C113" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9693,11 +9693,11 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B114" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C114" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -9725,15 +9725,15 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B115" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C115" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>NON_ISOLE</v>
+        <v>ITI</v>
       </c>
       <c r="D115" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9757,15 +9757,15 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B116" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C116" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="D116" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9789,15 +9789,15 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B117" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C117" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
+        <v>ITR</v>
       </c>
       <c r="D117" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9821,15 +9821,15 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B118" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C118" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="D118" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9853,15 +9853,15 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B119" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C119" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="D119" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9885,15 +9885,15 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B120" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITI_ITR</v>
-      </c>
-      <c r="C120" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
       </c>
       <c r="D120" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9917,15 +9917,15 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B121" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITI_ITE</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITR_ITE_ITI</v>
-      </c>
-      <c r="C121" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
       </c>
       <c r="D121" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9949,15 +9949,15 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B122" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C122" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="D122" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -9981,7 +9981,7 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B123" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="C123" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="D123" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10013,7 +10013,7 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B124" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="C124" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITE</v>
+        <v>ITI</v>
       </c>
       <c r="D124" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10045,15 +10045,15 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B125" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C125" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITR</v>
+        <v>ITI</v>
       </c>
       <c r="D125" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10077,7 +10077,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B126" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C126" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE</v>
       </c>
       <c r="D126" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10109,15 +10109,15 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B127" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C127" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITE</v>
+        <v>ITR</v>
       </c>
       <c r="D127" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10141,15 +10141,15 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B128" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C128" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI_ITR</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="D128" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10173,7 +10173,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B129" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C129" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE</v>
       </c>
       <c r="D129" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10205,15 +10205,15 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B130" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C130" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>NON_ISOLE</v>
+        <v>ITR</v>
       </c>
       <c r="D130" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10237,15 +10237,15 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B131" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITR_ITE_ITI</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITE_ITR</v>
-      </c>
-      <c r="C131" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITI</v>
       </c>
       <c r="D131" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10269,15 +10269,15 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B132" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C132" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="D132" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10301,15 +10301,15 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B133" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C133" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="D133" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10333,15 +10333,15 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B134" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C134" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="D134" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10365,11 +10365,11 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B135" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C135" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -10397,11 +10397,11 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B136" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C136" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -10429,11 +10429,11 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>PLANCHER_HAUT_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B137" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C137" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -10461,15 +10461,15 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B138" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C138" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>NON_ISOLE</v>
-      </c>
-      <c r="C138" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
       </c>
       <c r="D138" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10493,15 +10493,15 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B139" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C139" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITI</v>
-      </c>
-      <c r="C139" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
       </c>
       <c r="D139" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10525,15 +10525,15 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B140" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C140" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITE</v>
-      </c>
-      <c r="C140" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
       </c>
       <c r="D140" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10557,15 +10557,15 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B141" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C141" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITR</v>
-      </c>
-      <c r="C141" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
       </c>
       <c r="D141" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10589,15 +10589,15 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B142" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C142" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="D142" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10621,15 +10621,15 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B143" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C143" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="D143" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10653,7 +10653,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B144" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
@@ -10661,7 +10661,7 @@
       </c>
       <c r="C144" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="D144" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10685,15 +10685,15 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="str">
         <f>kpt[[#This Row],[type_liaison]]</f>
-        <v>REFEND_MUR</v>
+        <v>PLANCHER_BAS_MUR</v>
       </c>
       <c r="B145" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
+        <v>ITE_ITR</v>
+      </c>
+      <c r="C145" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>ITR_ITE_ITI</v>
-      </c>
-      <c r="C145" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
-        <v>null</v>
       </c>
       <c r="D145" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="F146" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>104</v>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="D147" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_EXTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E147" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F147" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>104</v>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="D148" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_INTERIEUR</v>
       </c>
       <c r="E148" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="F148" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>104</v>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="B149" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITI</v>
       </c>
       <c r="C149" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -10825,15 +10825,15 @@
       </c>
       <c r="D149" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
-      </c>
-      <c r="E149" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>null</v>
+        <v>NU_EXTERIEUR</v>
+      </c>
+      <c r="E149" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
       </c>
       <c r="F149" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>104</v>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="B150" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITI</v>
       </c>
       <c r="C150" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -10857,15 +10857,15 @@
       </c>
       <c r="D150" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_INTERIEUR</v>
-      </c>
-      <c r="E150" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>null</v>
+        <v>TUNNEL</v>
+      </c>
+      <c r="E150" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
       </c>
       <c r="F150" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>104</v>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B151" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>NON_ISOLE</v>
+        <v>ITI</v>
       </c>
       <c r="C151" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -10891,13 +10891,13 @@
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
         <v>NU_INTERIEUR</v>
       </c>
-      <c r="E151" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>null</v>
+      <c r="E151" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
       </c>
       <c r="F151" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>104</v>
@@ -10925,11 +10925,11 @@
       </c>
       <c r="E152" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>104</v>
@@ -10953,15 +10953,15 @@
       </c>
       <c r="D153" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_EXTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E153" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>104</v>
@@ -10985,15 +10985,15 @@
       </c>
       <c r="D154" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_INTERIEUR</v>
       </c>
       <c r="E154" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>104</v>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B155" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="C155" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="D155" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_EXTERIEUR</v>
       </c>
       <c r="E155" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11025,7 +11025,7 @@
       </c>
       <c r="F155" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>104</v>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B156" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="C156" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="D156" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_INTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E156" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="F156" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>104</v>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="B157" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="C157" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="F157" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>104</v>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="B158" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="C158" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="F158" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>104</v>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="B159" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="C159" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="D159" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_EXTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E159" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F159" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>104</v>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B160" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITE</v>
       </c>
       <c r="C160" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="D160" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_INTERIEUR</v>
       </c>
       <c r="E160" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F160" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>104</v>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B161" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C161" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11209,15 +11209,15 @@
       </c>
       <c r="D161" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_EXTERIEUR</v>
       </c>
       <c r="E161" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>104</v>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="B162" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C162" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11241,15 +11241,15 @@
       </c>
       <c r="D162" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_INTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E162" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>104</v>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="B163" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C163" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11277,11 +11277,11 @@
       </c>
       <c r="E163" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>104</v>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="B164" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C164" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11309,11 +11309,11 @@
       </c>
       <c r="E164" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>104</v>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="B165" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C165" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11337,15 +11337,15 @@
       </c>
       <c r="D165" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_EXTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E165" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>104</v>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B166" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C166" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11369,15 +11369,15 @@
       </c>
       <c r="D166" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_INTERIEUR</v>
       </c>
       <c r="E166" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>104</v>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="B167" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C167" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="D167" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_EXTERIEUR</v>
       </c>
       <c r="E167" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="F167" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>104</v>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="B168" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C168" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="D168" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_INTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E168" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="F168" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>104</v>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B169" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C169" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="F169" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>104</v>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="B170" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C170" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="F170" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>104</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="B171" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C171" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="D171" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_EXTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E171" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="F171" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>104</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="B172" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C172" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="D172" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_INTERIEUR</v>
       </c>
       <c r="E172" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="F172" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>104</v>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="B173" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C173" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11593,15 +11593,15 @@
       </c>
       <c r="D173" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>TUNNEL</v>
+        <v>NU_EXTERIEUR</v>
       </c>
       <c r="E173" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>104</v>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="B174" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C174" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11625,15 +11625,15 @@
       </c>
       <c r="D174" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_INTERIEUR</v>
+        <v>NU_EXTERIEUR</v>
       </c>
       <c r="E174" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>104</v>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="B175" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C175" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11657,15 +11657,15 @@
       </c>
       <c r="D175" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_pose_ouverture]]),"null",kpt[[#This Row],[type_pose_ouverture]])</f>
-        <v>NU_INTERIEUR</v>
+        <v>TUNNEL</v>
       </c>
       <c r="E175" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>104</v>
@@ -11681,19 +11681,19 @@
       </c>
       <c r="B176" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C176" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
         <v>null</v>
       </c>
-      <c r="E176" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>null</v>
-      </c>
-      <c r="F176" s="1" t="str">
-        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>null</v>
+      <c r="E176" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>1</v>
+      </c>
+      <c r="F176" s="1">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>50</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>104</v>
@@ -11709,7 +11709,7 @@
       </c>
       <c r="B177" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C177" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="F177" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>104</v>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="B178" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C178" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="F178" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>104</v>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="B179" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C179" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11782,11 +11782,11 @@
       </c>
       <c r="E179" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>104</v>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="B180" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C180" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11813,11 +11813,11 @@
       </c>
       <c r="E180" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>104</v>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B181" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C181" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11844,11 +11844,11 @@
       </c>
       <c r="E181" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>104</v>
@@ -11864,7 +11864,7 @@
       </c>
       <c r="B182" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C182" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11875,11 +11875,11 @@
       </c>
       <c r="E182" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>104</v>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="B183" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C183" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="F183" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>104</v>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="B184" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C184" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="F184" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>104</v>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="B185" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C185" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11966,13 +11966,13 @@
       <c r="D185" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E185" s="1">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+      <c r="E185" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
       </c>
       <c r="F185" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>104</v>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B186" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C186" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -11997,13 +11997,13 @@
       <c r="D186" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E186" s="1">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+      <c r="E186" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
       </c>
       <c r="F186" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>104</v>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B187" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>NON_ISOLE</v>
       </c>
       <c r="C187" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12028,13 +12028,13 @@
       <c r="D187" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E187" s="1">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+      <c r="E187" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
       </c>
       <c r="F187" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>104</v>
@@ -12050,7 +12050,7 @@
       </c>
       <c r="B188" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITE</v>
+        <v>ITI</v>
       </c>
       <c r="C188" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12061,11 +12061,11 @@
       </c>
       <c r="E188" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>104</v>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B189" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C189" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="F189" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>104</v>
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B190" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C190" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="F190" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>104</v>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="B191" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C191" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12154,11 +12154,11 @@
       </c>
       <c r="E191" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>104</v>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="B192" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C192" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12185,11 +12185,11 @@
       </c>
       <c r="E192" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>104</v>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="B193" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI</v>
       </c>
       <c r="C193" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12216,11 +12216,11 @@
       </c>
       <c r="E193" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>104</v>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B194" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C194" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="F194" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>104</v>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="B195" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C195" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12278,11 +12278,11 @@
       </c>
       <c r="E195" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>104</v>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="B196" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C196" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12309,11 +12309,11 @@
       </c>
       <c r="E196" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>104</v>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="B197" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C197" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="F197" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>104</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="B198" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C198" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="F198" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>104</v>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="B199" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITE</v>
       </c>
       <c r="C199" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="F199" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>104</v>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="B200" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITI_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C200" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12433,11 +12433,11 @@
       </c>
       <c r="E200" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>104</v>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="B201" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C201" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="F201" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>104</v>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="B202" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C202" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="F202" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>104</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="B203" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C203" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12526,11 +12526,11 @@
       </c>
       <c r="E203" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>104</v>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B204" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C204" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12557,11 +12557,11 @@
       </c>
       <c r="E204" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>104</v>
@@ -12577,7 +12577,7 @@
       </c>
       <c r="B205" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITE</v>
       </c>
       <c r="C205" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12588,11 +12588,11 @@
       </c>
       <c r="E205" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>104</v>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B206" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C206" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="F206" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>104</v>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="B207" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C207" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12654,7 +12654,7 @@
       </c>
       <c r="F207" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>104</v>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="B208" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C208" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="F208" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>104</v>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="B209" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C209" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12712,11 +12712,11 @@
       </c>
       <c r="E209" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>104</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="B210" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C210" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12743,11 +12743,11 @@
       </c>
       <c r="E210" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>104</v>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="B211" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITI_ITR</v>
       </c>
       <c r="C211" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12774,11 +12774,11 @@
       </c>
       <c r="E211" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>104</v>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="B212" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C212" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F212" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>104</v>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="B213" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C213" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12836,11 +12836,11 @@
       </c>
       <c r="E213" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>104</v>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B214" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C214" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12867,11 +12867,11 @@
       </c>
       <c r="E214" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>104</v>
@@ -12887,7 +12887,7 @@
       </c>
       <c r="B215" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C215" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12898,11 +12898,11 @@
       </c>
       <c r="E215" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>104</v>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="B216" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C216" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12929,11 +12929,11 @@
       </c>
       <c r="E216" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>104</v>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="B217" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C217" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12960,11 +12960,11 @@
       </c>
       <c r="E217" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>104</v>
@@ -12980,7 +12980,7 @@
       </c>
       <c r="B218" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C218" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="F218" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>104</v>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="B219" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C219" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="F219" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>104</v>
@@ -13042,7 +13042,7 @@
       </c>
       <c r="B220" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C220" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="F220" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>104</v>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="B221" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C221" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -13088,7 +13088,7 @@
       </c>
       <c r="F221" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>104</v>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="B222" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITE_ITR</v>
       </c>
       <c r="C222" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="F222" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>104</v>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="B223" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITE_ITR</v>
+        <v>ITR_ITE_ITI</v>
       </c>
       <c r="C223" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="F223" s="1">
         <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>104</v>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B224" s="1" t="str">
         <f>kpt[[#This Row],[type_isolation_mur]]</f>
-        <v>ITR_ITE_ITI</v>
+        <v>ITR</v>
       </c>
       <c r="C224" s="1" t="str">
         <f>IF(ISBLANK(kpt[[#This Row],[type_isolation_plancher]]),"null",kpt[[#This Row],[type_isolation_plancher]])</f>
@@ -13175,13 +13175,13 @@
       <c r="D224" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E224" s="1">
-        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
-        <v>0</v>
-      </c>
-      <c r="F224" s="1">
-        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
-        <v>10</v>
+      <c r="E224" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[presence_retour_isolation]]),"null",kpt[[#This Row],[presence_retour_isolation]])</f>
+        <v>null</v>
+      </c>
+      <c r="F224" s="1" t="str">
+        <f>IF(ISBLANK(kpt[[#This Row],[largeur_dormant]]),"null",kpt[[#This Row],[largeur_dormant]])</f>
+        <v>null</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>104</v>
